--- a/8BIT_CU_TRUTH_TABLE.xlsx
+++ b/8BIT_CU_TRUTH_TABLE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Ambiente de Trabalho\PESTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\OneDrive\Ambiente de Trabalho\PESTA\Simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F20C11-A853-4989-B440-A6A4E017699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF071FB-39C5-43C1-AA83-6D0F4E76E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C8C95F2E-6F73-4E45-9597-CD340F93E1DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
   <si>
     <t>Instructions</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>JN</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>RW</t>
   </si>
 </sst>
 </file>
@@ -142,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,11 +171,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,14 +206,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -506,98 +538,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5B471E-50CA-4DA8-A7B8-0DEA5A2BC8A5}">
-  <dimension ref="A3:X24"/>
+  <dimension ref="A3:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D3" s="4" t="s">
+    <row r="3" spans="1:25" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="6" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="Y4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="3">
         <v>1</v>
       </c>
@@ -661,11 +697,14 @@
       <c r="X5" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="Y5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="3">
         <v>1</v>
       </c>
@@ -729,13 +768,16 @@
       <c r="X6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="3">
         <v>1</v>
       </c>
@@ -799,11 +841,14 @@
       <c r="X7" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="3">
         <v>0</v>
       </c>
@@ -861,19 +906,22 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7" t="s">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="3">
         <v>1</v>
       </c>
@@ -931,17 +979,20 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-      <c r="W9" s="7">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7" t="s">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="3">
         <v>0</v>
       </c>
@@ -999,19 +1050,22 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7" t="s">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3">
         <v>1</v>
       </c>
@@ -1069,17 +1123,20 @@
       <c r="V11" s="3">
         <v>0</v>
       </c>
-      <c r="W11" s="7">
-        <v>0</v>
-      </c>
-      <c r="X11" s="7" t="s">
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="3">
         <v>0</v>
       </c>
@@ -1137,19 +1194,22 @@
       <c r="V12" s="3">
         <v>1</v>
       </c>
-      <c r="W12" s="7">
-        <v>0</v>
-      </c>
-      <c r="X12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="3">
         <v>1</v>
       </c>
@@ -1207,17 +1267,20 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-      <c r="W13" s="7">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7" t="s">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
@@ -1281,13 +1344,16 @@
       <c r="X14" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="3">
         <v>1</v>
       </c>
@@ -1351,11 +1417,14 @@
       <c r="X15" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="3">
         <v>0</v>
       </c>
@@ -1377,7 +1446,7 @@
       <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="3">
         <v>0</v>
       </c>
       <c r="L16" s="3">
@@ -1419,11 +1488,14 @@
       <c r="X16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="3">
         <v>1</v>
       </c>
@@ -1487,11 +1559,14 @@
       <c r="X17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="3">
         <v>0</v>
       </c>
@@ -1555,54 +1630,155 @@
       <c r="X18" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>1</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1625,7 +1801,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1644,7 +1820,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1656,7 +1832,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -1669,17 +1845,18 @@
       <c r="V24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="D3:G4"/>
+    <mergeCell ref="H3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="M3:Y3"/>
     <mergeCell ref="A15:C18"/>
     <mergeCell ref="A5:C6"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="A9:C10"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="A13:C14"/>
-    <mergeCell ref="D3:G4"/>
-    <mergeCell ref="H3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
